--- a/output/intraday/riepilogo_intraday_2026-01-16.xlsx
+++ b/output/intraday/riepilogo_intraday_2026-01-16.xlsx
@@ -719,9 +719,11 @@
       <c r="J2" t="n">
         <v>2.61</v>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>2.02</v>
+      </c>
       <c r="L2" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="M2" t="n">
         <v>2.45</v>
@@ -733,7 +735,7 @@
         <v>1.7</v>
       </c>
       <c r="P2" t="n">
-        <v>1115723425</v>
+        <v>1177041899</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -745,22 +747,34 @@
           <t>2026-01-15 15:59:00</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.95</v>
+      </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
-      <c r="X2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>2026-01-15 09:07:00</t>
+        </is>
+      </c>
       <c r="Y2" t="n">
         <v>2.08</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>61318474</v>
       </c>
       <c r="AB2" t="n">
         <v>2.17</v>
@@ -769,7 +783,7 @@
         <v>1.84</v>
       </c>
       <c r="AD2" t="n">
-        <v>5571572</v>
+        <v>66890046</v>
       </c>
       <c r="AE2" t="n">
         <v>2.17</v>
@@ -778,7 +792,7 @@
         <v>1.74</v>
       </c>
       <c r="AG2" t="n">
-        <v>95492574</v>
+        <v>156811048</v>
       </c>
       <c r="AH2" t="n">
         <v>2.31</v>
@@ -787,7 +801,7 @@
         <v>1.74</v>
       </c>
       <c r="AJ2" t="n">
-        <v>282000914</v>
+        <v>343319388</v>
       </c>
       <c r="AK2" t="n">
         <v>2.09</v>
@@ -799,7 +813,7 @@
         <v>1.74</v>
       </c>
       <c r="AN2" t="n">
-        <v>293957231</v>
+        <v>355275705</v>
       </c>
       <c r="AO2" t="n">
         <v>1.98</v>
@@ -811,7 +825,7 @@
         <v>1.74</v>
       </c>
       <c r="AR2" t="n">
-        <v>302864386</v>
+        <v>364182860</v>
       </c>
       <c r="AS2" t="n">
         <v>2.08</v>
@@ -823,7 +837,7 @@
         <v>1.74</v>
       </c>
       <c r="AV2" t="n">
-        <v>449244475</v>
+        <v>510562949</v>
       </c>
       <c r="AW2" t="n">
         <v>1.79</v>
@@ -864,9 +878,11 @@
       <c r="J3" t="n">
         <v>9.84</v>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>4.17</v>
+      </c>
       <c r="L3" t="n">
-        <v>4.16</v>
+        <v>4.13</v>
       </c>
       <c r="M3" t="n">
         <v>5.05</v>
@@ -878,7 +894,7 @@
         <v>3.96</v>
       </c>
       <c r="P3" t="n">
-        <v>224724714</v>
+        <v>259786540</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -890,22 +906,34 @@
           <t>2026-01-15 12:26:00</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4.15</v>
+      </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
-      <c r="X3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2026-01-15 08:18:00</t>
+        </is>
+      </c>
       <c r="Y3" t="n">
-        <v>4.26</v>
+        <v>4.27</v>
       </c>
       <c r="Z3" t="n">
         <v>4.05</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>35061826</v>
       </c>
       <c r="AB3" t="n">
         <v>4.57</v>
@@ -914,7 +942,7 @@
         <v>4.05</v>
       </c>
       <c r="AD3" t="n">
-        <v>1152612</v>
+        <v>36214438</v>
       </c>
       <c r="AE3" t="n">
         <v>4.64</v>
@@ -923,7 +951,7 @@
         <v>3.93</v>
       </c>
       <c r="AG3" t="n">
-        <v>4619160</v>
+        <v>39680986</v>
       </c>
       <c r="AH3" t="n">
         <v>4.64</v>
@@ -932,7 +960,7 @@
         <v>3.93</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6623677</v>
+        <v>41685503</v>
       </c>
       <c r="AK3" t="n">
         <v>4.36</v>
@@ -944,7 +972,7 @@
         <v>3.93</v>
       </c>
       <c r="AN3" t="n">
-        <v>12123648</v>
+        <v>47185474</v>
       </c>
       <c r="AO3" t="n">
         <v>4.37</v>
@@ -956,7 +984,7 @@
         <v>3.93</v>
       </c>
       <c r="AR3" t="n">
-        <v>13407681</v>
+        <v>48469507</v>
       </c>
       <c r="AS3" t="n">
         <v>4.11</v>
@@ -968,7 +996,7 @@
         <v>3.62</v>
       </c>
       <c r="AV3" t="n">
-        <v>152143726</v>
+        <v>187205552</v>
       </c>
       <c r="AW3" t="n">
         <v>4.34</v>
@@ -1013,7 +1041,7 @@
         <v>3.44</v>
       </c>
       <c r="L4" t="n">
-        <v>3.39</v>
+        <v>3.4</v>
       </c>
       <c r="M4" t="n">
         <v>5.47</v>
@@ -1041,27 +1069,27 @@
         <v>2.43</v>
       </c>
       <c r="T4" t="n">
-        <v>2.43</v>
+        <v>4.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
       <c r="V4" t="n">
-        <v>2.43</v>
+        <v>3.36</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2026-01-15 04:59:00</t>
+          <t>2026-01-15 08:38:00</t>
         </is>
       </c>
       <c r="Y4" t="n">
         <v>3.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.38</v>
+        <v>3.36</v>
       </c>
       <c r="AA4" t="n">
         <v>3769480</v>
@@ -1169,10 +1197,10 @@
         <v>29.65</v>
       </c>
       <c r="K5" t="n">
-        <v>9.619999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>9.619999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="M5" t="n">
         <v>10.97</v>
@@ -1200,27 +1228,27 @@
         <v>9.779999999999999</v>
       </c>
       <c r="T5" t="n">
-        <v>10.08</v>
+        <v>11.65</v>
       </c>
       <c r="U5" t="n">
-        <v>9.59</v>
+        <v>9.43</v>
       </c>
       <c r="V5" t="n">
-        <v>9.880000000000001</v>
+        <v>10.01</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2026-01-15 04:02:00</t>
+          <t>2026-01-15 08:00:00</t>
         </is>
       </c>
       <c r="Y5" t="n">
-        <v>9.75</v>
+        <v>10.04</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.42</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="AA5" t="n">
         <v>5230628</v>
@@ -1229,7 +1257,7 @@
         <v>10.33</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="AD5" t="n">
         <v>5730856</v>
@@ -1238,7 +1266,7 @@
         <v>10.54</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.4</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="AG5" t="n">
         <v>11213149</v>
@@ -1247,7 +1275,7 @@
         <v>10.65</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.4</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="AJ5" t="n">
         <v>16260964</v>
@@ -1259,7 +1287,7 @@
         <v>10.65</v>
       </c>
       <c r="AM5" t="n">
-        <v>9.4</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="AN5" t="n">
         <v>16856194</v>
@@ -1271,7 +1299,7 @@
         <v>10.97</v>
       </c>
       <c r="AQ5" t="n">
-        <v>9.4</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="AR5" t="n">
         <v>17956974</v>
@@ -1283,7 +1311,7 @@
         <v>10.97</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.4</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="AV5" t="n">
         <v>19236993</v>
@@ -1327,9 +1355,11 @@
       <c r="J6" t="n">
         <v>3.24</v>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>7.72</v>
+      </c>
       <c r="L6" t="n">
-        <v>7.78</v>
+        <v>7.88</v>
       </c>
       <c r="M6" t="n">
         <v>25.11</v>
@@ -1341,7 +1371,7 @@
         <v>17.39</v>
       </c>
       <c r="P6" t="n">
-        <v>66247480</v>
+        <v>102336324</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -1353,14 +1383,26 @@
           <t>2026-01-15 09:41:00</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T6" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7.8</v>
+      </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
-      <c r="X6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>2026-01-15 07:54:00</t>
+        </is>
+      </c>
       <c r="Y6" t="n">
         <v>7.99</v>
       </c>
@@ -1368,7 +1410,7 @@
         <v>7.51</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>36088844</v>
       </c>
       <c r="AB6" t="n">
         <v>7.99</v>
@@ -1377,7 +1419,7 @@
         <v>6.65</v>
       </c>
       <c r="AD6" t="n">
-        <v>617152</v>
+        <v>36705996</v>
       </c>
       <c r="AE6" t="n">
         <v>7.99</v>
@@ -1386,7 +1428,7 @@
         <v>6.08</v>
       </c>
       <c r="AG6" t="n">
-        <v>31366488</v>
+        <v>67455332</v>
       </c>
       <c r="AH6" t="n">
         <v>9.9</v>
@@ -1395,7 +1437,7 @@
         <v>6.08</v>
       </c>
       <c r="AJ6" t="n">
-        <v>37259628</v>
+        <v>73348472</v>
       </c>
       <c r="AK6" t="n">
         <v>9.17</v>
@@ -1407,7 +1449,7 @@
         <v>6.08</v>
       </c>
       <c r="AN6" t="n">
-        <v>42546468</v>
+        <v>78635312</v>
       </c>
       <c r="AO6" t="n">
         <v>12.3</v>
@@ -1419,7 +1461,7 @@
         <v>6.08</v>
       </c>
       <c r="AR6" t="n">
-        <v>49645688</v>
+        <v>85734532</v>
       </c>
       <c r="AS6" t="n">
         <v>17.82</v>
@@ -1431,7 +1473,7 @@
         <v>6.08</v>
       </c>
       <c r="AV6" t="n">
-        <v>57861411</v>
+        <v>93950255</v>
       </c>
       <c r="AW6" t="n">
         <v>15.65</v>
